--- a/src/test/resources/resources/OrangeHRM.xlsx
+++ b/src/test/resources/resources/OrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C869935-6D6D-4E68-874B-7CD2D92D1074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3732EC-11E6-4AD0-84C8-9C6DC83EF0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="5595" windowWidth="14400" windowHeight="10755" xr2:uid="{18648C37-AC70-4A24-9965-AA15281F9F42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{18648C37-AC70-4A24-9965-AA15281F9F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>serial no</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t>Rocky@123</t>
+  </si>
+  <si>
+    <t>Serial no</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Ajaya</t>
+  </si>
+  <si>
+    <t>Pandit</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>bhai</t>
   </si>
 </sst>
 </file>
@@ -428,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A7E3CD-B818-450F-99E5-8B9401DBF51A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +519,80 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{3C40DCEE-39E5-4DF2-A160-1D63706084BE}"/>

--- a/src/test/resources/resources/OrangeHRM.xlsx
+++ b/src/test/resources/resources/OrangeHRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3732EC-11E6-4AD0-84C8-9C6DC83EF0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC4392F-A21F-4383-AD69-5FB81D23169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{18648C37-AC70-4A24-9965-AA15281F9F42}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>serial no</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>Ajaya</t>
-  </si>
-  <si>
-    <t>Pandit</t>
-  </si>
-  <si>
     <t>User name</t>
   </si>
   <si>
@@ -73,6 +67,18 @@
   </si>
   <si>
     <t>bhai</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Pandita</t>
+  </si>
+  <si>
+    <t>Anil123</t>
+  </si>
+  <si>
+    <t>Ajay123</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -564,13 +570,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -578,16 +584,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>

--- a/src/test/resources/resources/OrangeHRM.xlsx
+++ b/src/test/resources/resources/OrangeHRM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\Orange-HRM\src\test\resources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC4392F-A21F-4383-AD69-5FB81D23169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B048DD-A4B2-469E-9CAC-28EBF0FA320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{18648C37-AC70-4A24-9965-AA15281F9F42}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>serial no</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Rocky</t>
   </si>
   <si>
-    <t>Rocky@123</t>
-  </si>
-  <si>
     <t>Serial no</t>
   </si>
   <si>
@@ -75,10 +72,7 @@
     <t>Pandita</t>
   </si>
   <si>
-    <t>Anil123</t>
-  </si>
-  <si>
-    <t>Ajay123</t>
+    <t>Rocky123</t>
   </si>
 </sst>
 </file>
@@ -518,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -527,7 +521,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -550,16 +544,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -567,16 +561,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -584,16 +578,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -601,7 +595,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{3C40DCEE-39E5-4DF2-A160-1D63706084BE}"/>
+    <hyperlink ref="C3" r:id="rId1" display="Rocky@123" xr:uid="{3C40DCEE-39E5-4DF2-A160-1D63706084BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/resources/OrangeHRM.xlsx
+++ b/src/test/resources/resources/OrangeHRM.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\Orange-HRM\src\test\resources\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B048DD-A4B2-469E-9CAC-28EBF0FA320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BF69D51A-7A01-4FD5-A300-DAF5A1E8248C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{18648C37-AC70-4A24-9965-AA15281F9F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>serial no</t>
   </si>
@@ -72,7 +68,13 @@
     <t>Pandita</t>
   </si>
   <si>
-    <t>Rocky123</t>
+    <t>Rocky789</t>
+  </si>
+  <si>
+    <t>Anil123</t>
+  </si>
+  <si>
+    <t>Ajay123</t>
   </si>
 </sst>
 </file>
@@ -584,10 +586,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
